--- a/biology/Botanique/Sansevieria_metallica/Sansevieria_metallica.xlsx
+++ b/biology/Botanique/Sansevieria_metallica/Sansevieria_metallica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sansevieria metallica, également appelée Dracaena zebra[1], est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sansevieria metallica, également appelée Dracaena zebra, est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante succulente, Sansevieria metallica est une espèce de sansevières à longues feuilles (70 à 110 cm de longueur et 4,5 à 6 cm de largeur), lancéolées, plates (mais avec un pétiole présentant un sillon), et de couleur vert-blanchâtre fortement tachetées de manière irrégulière de zones plus crayeuses[2],[3]. Elles poussent directement par une à trois depuis leur rhyzome rougeâtre, de 2 cm de diamètre, sans stype à leurs bases. Les inflorescences mesurent de 40 à 102 cm de longueur, avec des pédoncules de 45 à 60 cm, un rachis de 31 à 45 cm, présentant deux à sept fleurs par branche de couleur blanches parfois teintées de rouge[3].
-Elle a été identifiée comme espèce à part entière en 1903 par les botanistes français Joseph Gérôme et Oscar Labroy[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante succulente, Sansevieria metallica est une espèce de sansevières à longues feuilles (70 à 110 cm de longueur et 4,5 à 6 cm de largeur), lancéolées, plates (mais avec un pétiole présentant un sillon), et de couleur vert-blanchâtre fortement tachetées de manière irrégulière de zones plus crayeuses,. Elles poussent directement par une à trois depuis leur rhyzome rougeâtre, de 2 cm de diamètre, sans stype à leurs bases. Les inflorescences mesurent de 40 à 102 cm de longueur, avec des pédoncules de 45 à 60 cm, un rachis de 31 à 45 cm, présentant deux à sept fleurs par branche de couleur blanches parfois teintées de rouge.
+Elle a été identifiée comme espèce à part entière en 1903 par les botanistes français Joseph Gérôme et Oscar Labroy.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est originaire du sud-est de l'Afrique australe, où elle est présente au Mozambique, au Malawi et dans la région du KwaZulu-Natal en Afrique du Sud. Elle a été introduite aux Îles Marshall, à La Réunion et aux Îles Carolines. Elle pousse en massifs buissonants dans les terrains sableux entre 0 et 900 m d'altitude[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est originaire du sud-est de l'Afrique australe, où elle est présente au Mozambique, au Malawi et dans la région du KwaZulu-Natal en Afrique du Sud. Elle a été introduite aux Îles Marshall, à La Réunion et aux Îles Carolines. Elle pousse en massifs buissonants dans les terrains sableux entre 0 et 900 m d'altitude,.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce présente des synonymes[5],[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce présente des synonymes, :
 Acyntha metallica (Gérôme &amp; Labroy, 1903 ; Chiovenda, 1940)
 Dracaena zebra (Gérôme &amp; Labroy, 1903 ; Byng &amp; Christenh., 2018)
 et trois variétés :
